--- a/Testdata/TC_59.xlsx
+++ b/Testdata/TC_59.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>OBwAAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCJe+OlG1JWF3AlxSipCiQVGXlS7G8W4lX3+2xt3uS+C0FEqRIUxRF4RTpE/2UokBdo02A1O7jfwks2f3Uf6Gzj3uRVCyqgiHfzvxmdnZ2dmZ2hd65CgPjgsTMj+hexa5ZFYNQN/J8er5XSfhZ1X5YecdB3SuXBEc4xiHhADZAirLdK+bvVWacz3dN8/LysnbZqEXxuVm3LNt8POiP3RkJcdWnjGPqkkom5b1dquKgthcOCMce5lhJ7lV6416tTXy3A7QBpvicxLVWwnxKGOtS7nOfMCEZE8xJuzP4nlqYU689rNnIXKHnyFbiB57ClZCKrnEwLZn4IXHqlr1dtbarDXtiW7uNnd36o5q1s/VeKpgBUR8zPibxhe9KwpjjcC7Fre2GbVuNnfojZK4Fga7cAQ4aBt6IXPiMeG0SBGwjj5h6A5suh1Vv5kwLmQVZrej+JhzEeD6b+Dwgm5kxGrSMkGpbciUO2o9i4oL/7mXSIbkcxtqtk3kfuJOZH/NFBy821nXMSDycCydtJuqgTkR5MyAxP57DXhMPQgEYDo8TgsxbmLlQx2cufPs0IZ5zhgNWFCox0UkUP2Fz7JJDOMem0HFJgwh7EHDcZ9x3Wa5ghYOO4mgOKmH2VhR4+6BWm7iGkanuUfCxmLcVRU+WtZeZSG6r3GDY1BDzFL5CR+NZdDmkwWKcTJkb+1PidVopei0PiROppdsJ41EIVuQkpGgFygJ+4AQuk1GHuH6Ig6MAvMicBmgpEVAz4dGZz9tRkIQ0c+cSFZ3AiibkKlthNkZD2F0qnB7RHk3xys1rWWWBUXSZzbnKkE4okJvMTYNslbEM7gAt3b5VjtwRscp9P4ACUdyLArUcFeMZIXxtSCgOErlwX5Qcp7UQcyIzpyCITAhvoEI2tayqZVetxsSyduU/mDljoy715AfAbImzC7iUiQ6TcDiFI3wh1+TYwFsiIVhF0AowfQLUE5/PDpup9Ws4SK35VvwqD8FhnQd4IcmZX4o01KNukHhE5YAePZNBKWxT23grG62Q+nCqHYTpYrKYQypm/i6Hj70KFOddxmMo/xXHjRLK44VIFsjU0LfJsGRK5QQ4uLPMWUx+mEDXsdhPqNuOvLvP5invHFOf393CKIlVBry7iPSeyIUJ6xCRVWSev7O8u8maWLwRPKQkjKjv3t3b4GRhvXePhbD0VBUkzFtiq0POcBJAX8Oh/JznlWWJjJrsyTKmSELHcZAmB0d0jQzaRtcLay4UVtEa1dwoFAQTurWTMTKLeNEduKRLz/uYnidQf7MDuEzPUpMoHZMYUyaWk5XbpSy1HoTSA63aAKd4dpG5xEQTEs6jGAcD8Ia/rzdFNxBQmweYz/QIcn1A3NSzZi6aSZXNSa19G0wmbWW7OA46iSwRJUhsuepKc0xOQyKBDSBogzYO/Gmsck5a2tbxYJfybinNTmJxG3ZOqePhZgLV6LtkIdrVfKDpMk7tlKGiVqQZZzza2q4/sBp1qPRijOSKRwQHRhdCnROjRy8I4yGI7RojwnwPvnwc7BrvkinxoURIF+mN3li6KIf20ywoTWmCvWVKGQD199yHJLsKzDi5gHNKcBwsCkC11H7kAu7mx/++/s3zVy8+v/n46ZsvP/jvP3716p8/u372IXzc/PVv15/8Ui1TgdEETwMiDZq0tretxhbEWUZCwrmmbBW9xOWSdnoqO8RsjPRNRw7a3V77oN+SSSQjpuIq4ZriErWIknw4VouQE8ktNdNIUBBnkiYlPS5xCwncEZeaC1JGF/m3CSpfvH75+euXf75VWjss70TsnZ0HVbtebkDWNCpwPbRXcFmjIi6L6i6QXkW3qtaDar1eAC9h0Ahu1ND6Z37qeU7DtnasesOyswTuZYG8DrTM0pom+NxcklOktmoeshAojlOmDPwJHJGMrY5CYaBD9MufvPnL0xJKe1dTylrAOFnkxWRmOpCqD0cTYzw8HrW7xqQ7FnGS8wo4pfwbwHr27DyVgorSBAffMQgVryhGBW4IFSM6Mwh2Z8YCTmLhHJaCbR1VTXRPlctWHsRRMlc7UhDIqWuQWTZZK7Em10ie9OdK0slZa+DK1uu/f7FOQC+kk7d72YNAkYZKHEUq8PWp/exfr7766NWLFzfPf3791Y9KGvQ82T0Z4hxOU3GYhT2kPF1vlijoZCyd+cT6fqG+aKK4ZhxFPuXMsR/KG4YeIRC1hTb5P+qFUPKkYukvoC9R0LuYda+4PtjOITLLBLBzjqHaRvldLCOoHJ779T+//d3Nr7+4+fT5m4/+dP3xH68/+fT1y9+/efYHdepunj6/+ekzneWXC4G0RdzwVOdnyPcC1xCn0RC12/j6/V8YNOIGtBxGIjPS1+9/VlAmDJXNSa4Z+rjMkLIJK9CisJAzCqZkNpTkMhHVALRFCWtkCF3Eornv5pO8VxWqxLmTjG/1JtWEESOCburbsJIyOBe+q5wWUSX16JFVt+uaq6wRS5hiVnD9QRBNoclIGfJCvgQpSX2zQI6V8x30h61mP4coI4axB/d3S7wqiA+UtpSipPRYOkpDrUABLjR+bhKIN5QV2Cor01xIY6Z+jDhreiL9rb/IlxConcSxaoioftweJ3NohtMnq9v58h2v0P8eql612BHn416nzIdxgQuFsMwWBMmXqUmzVJrqMfHuodrZQ+GafAi80tsfuEO/X6tO6wL6ytgUeacbx1G8NvnknBQ2gE4aMoqZezzDyD1VXbeX71VKSBNe9qGue3qFUYcEhG/2uGvm0oPo4t6ysPebivbYMPC0Mze7emRuyRUUX7hFoPy/D9wq2JpxDI2VeBDb+EU6va2O4JK7oTVqKVJQ3ABhdv1kvO/HjD8WmUB/KcppRjlVHepjceFSH3J86tQbigAAs6jdLJmZHl2u/s4QBX0/9De8Flrp+S4rAV/O56qF620WKaK0HJIraDALGiApTn8AZUM9l2yiTQUs5NJMXrzsMf98xjc17NEUE49Mrao7JfXqlmdtV3cIaVRtG35jt163rAfiXVArh8zhk8sNJzHTDcv//uf8D+4PomE4HAAA</t>
+          <t>MR4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe6EkU8JoA/EihyglCiJVWXkplrtDaarlLLszK4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVvJBVrVUOAd85tzpw51yF653oaGpc4ZiSiOzV7zaoZmPpRQOjZTi3hk7q9WXvHRd1rH4eHXuxNMQdiA7go275mZKd2zvls2zSvrq7WrhprUXxmOpZlm0/2+0P/HE+9OqGMe9THtYwreDtXzUXtYLqPuRd43FOcO7XesLfWxsTvAGzfo94ZjtdaCSMUM9alnHCCmeCMscdxu7P/PXUw11nbXLORuQTPKVsJCQNFV6JUcE0H2+IRmWLXsRyrbjXrzvrIam43Nrcbj9aajvNeypgRor7H+BDHl8SXgCH3pjPJbjWddavZ2Gw8QuZKIpCVG8BFgzA4wpeE4aCNw5BVsoipL3DX53Dqasa0kFng1YIersLj2JudjwgPcVX2vSjGPhjqQXsf4KtBrO03mvUBOzonMZ93vHllWccMx4OZsEY1Vhd1Isp3Qxzz4xlcKg7gzgHh8jjByLwDmTN1CPPhm9AEB+7EC1mRqYREJ1F8wWaejw8gYE0h44qGkReAZ3HCOPFZLmAJgw7jaAYiYfdWFAZ7IFaruAKRie5RsLHYtxVFF4vSy0gknUC6A1zq1OMp+RIcDc+jqwEN58NkzPyYjHHQaaXUK3FIhJ7mbieMR1PQIgchBStA5vAPQm0RjDrYJ1MvPAzBisxtgJQSAO0mPJoQ3o7CZEozcy5A0QmcaISvsxNmazSA26XC6BHt0ZRemXklqsxwFF1ley4jpBEK4F3mp062jFgk7gAsvb5ljLwRcco9EkIlKN5FAVr2iuE5xnylSygMEklvT9QWtzUXeyIzhyDwTHBvgELatDZl1rVHlrUt/2DnDI26NJAfFlSSuvwr0KVIdJBMB2MI4Ut5JtcG3AIIwSnCVujRC4CeEH5+sJtqvwKD1JnvpF/GIQjWWejNJTizSxGGetQPkwCrHNCjE+mUQjd1jXei0RKoD1HtIo/OR/MZ5FxGtjl87NSgCm8zHkOdr7l+lFAez0WyQKYmfRsPS8ZUbuCF9+aZxPiHCbQX872E+u0ouP9ugbLOMSX8/hpGSawy4P1ZpPVELkxYB4usIvP8vfn9KmdicSXyKcXTiBL//tYGIwvtgwcchKVRVeAw7/CtDp54SQgNDIfyc5ZXlgUw2mUXizRFEDqOwzQ5uKI9ZNAf+sF0zYfCKnqgNT+aCoAJbdnJEJlFetEd+LhLz/oePUug/mYBuAjPUpMoHaPYo0wcJyu3C1lqNRFKA1q1AW4xdpG5gEQjPJ1FsRfugzXInr4U3UBAbd73+LleQa4PsZ9a1sxZM66yOqm2byOTSVvpLsJBJ5EFoCQSV67az5wmhyGRwPbBacO2F5JxrHJOWtpW4eCW8m4pzU7icBU7p9TwMIJANfounou+NF9ouPRTO0UorxVpxh0erTedDavhQKUXayRPfIS90OiCq3Ns9OglZnwKbNvGEWYkgC/ihdvGu3iMCZQIaSJ90ZW5i3xoL82CUpVd0LcMKRNA/T0jkGSXCTNMzuCeYi8O5wVCddR+5APd7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aU6piJGI28cYqnQqNVsWo118LMMhIRxTdkqBonPJez0VHaI2RrpkUYu2t1e+3G/JZNIBkzZVcI1xbQ0j5J8OVSHkBvJKzVTT1Ak7ihNSnpdwhYSuCuml0tcpi7i72JUtnj98vPXL/98J7c2WN6J2FtbG3XbKTcgKxoVx7LtJbqsURFToZoF9Mxpr9etjbrjFIgXaNARjM7Q+md26gVuw7a2LKdh2VkCDzJHXkW0iNKSRt6ZucCnQG3VPGQuUFynSOn4IwiRDK1CobDQLvrlT9785WmJSltXQ8pSQDlZ5MVmZrqQog+ORsZwcHzU7hqj7lD4SY4r0Cnh30Csd8/iqeRUlCZe+B0DU/FcYtRgQqgZ0cTAnn9uzCESC3FYcrZVULXRA0Uuavk4jpKZupECQw5dQZllk5UcK3KNxEl7LiWdHLWCXOl68/cvVjHog3Tyds892m8ZU5r5pYShEkaBCngdtZ/969VXH7168eL2+c9vvvpRSYLeJ5uTwc8hmorLzO0h5el6swBBJ0NpzAvr+4X6ooFizDiMCOXMtTflhKFXCFhtIU3+j3pTKHlSsLQXwBcg6F2Pda+5Dmz3AJllAOg586DaRvkslgFUDs/t+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDirrbp89vf/pMZ/nFQiB1EROe6vwM+V7gGyIaDVG7ja/f/4VBI25Ay2EkMiN9/f5nBWFCUdmc5JKhj8sUKauwRFpkFnxGQZVMhxJfxqIagLYoYY2MQhexaEb8fJP36kKUiDuJ+FZvVE8YNiLopr4NJykT58z35dMsqqQePrIc29FYpY04wthjBdM/DqMxNBkpQg7kCyQlrm9myGnlfo/7g9ZuPydRSgziAOZ3S7wqiA/UY2lTmbpXAQJYaPb8JBTvJktkyyiUfhVSl6kfICa7gUh5q4f3EgVqJ3GsmiCqX66HyQwa4PSZ6m68fLsr9LwHqj8tdsH5utcp42FdwELxK6MFQOJlOtIolZp6TLx1qBb2QJgmXwKu9N4H5tCP06q7uoReMjZFrunGcRSvTDg5JiXbh+4ZsoiZWzyjMcWWqtMO8rtKAWmSyz7UiKdPGHVwiHnll9uUez+6fDAv3H1V1h4bhIE2ZrVxIzNLLqD4fC0cpaoyu3EMbZN47qr83twn9KJX7fSuM3k0WR8HW+NJc72x1dxy/PFkw7Htsd+YNMdwNiVUTJ9ChJhcxOxWbRNoFsvs+XB9BON2RWnKwJJRzKJgKRmQOrFna7RHYsafiBSlvxTkNIOcqtb5idBPfcj1qWvrn1qAwCxuZpa0TvMLV790RGGfTEnFedVKk1BZCLjBbKZ6y6oXCjXvAF9D51uQANl6/AOoZ+odp4o0FVWQ5DP+VNYwGVcWZ6bMh4AXjvUw7m4AfdnDueXPBiT8PxSQnddDRfQoI2fnvHKgbm018CZ26s7E9+vrsKhDNR7XA2+yZVvWpBFsOOK9VwuH6kDwVcVNRE0hDOaK6nzmwg+/7v8AWaCDJzEeAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -535,97 +535,49 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>36861</v>
+        <v>39052</v>
       </c>
       <c r="B13" s="6">
-        <v>7111.74</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>37226</v>
+        <v>39417</v>
       </c>
       <c r="B14" s="6">
-        <v>8354.02</v>
+        <v>57369.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>37591</v>
+        <v>39783</v>
       </c>
       <c r="B15" s="6">
-        <v>10540.67</v>
+        <v>85858.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>37956</v>
+        <v>40148</v>
       </c>
       <c r="B16" s="6">
-        <v>16421.36</v>
+        <v>121923.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>38322</v>
+        <v>40513</v>
       </c>
       <c r="B17" s="6">
-        <v>22352.63</v>
+        <v>178575.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>38687</v>
+        <v>40878</v>
       </c>
       <c r="B18" s="6">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>39052</v>
-      </c>
-      <c r="B19" s="6">
-        <v>37962.97</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>39417</v>
-      </c>
-      <c r="B20" s="6">
-        <v>57369.95</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>39783</v>
-      </c>
-      <c r="B21" s="6">
-        <v>85858.17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>40148</v>
-      </c>
-      <c r="B22" s="6">
-        <v>121923.76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5">
-        <v>40513</v>
-      </c>
-      <c r="B23" s="6">
-        <v>178575.96</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5">
-        <v>40878</v>
-      </c>
-      <c r="B24" s="6">
         <v>229630.61</v>
       </c>
     </row>
@@ -633,4 +585,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>18</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DA8A5E-A505-420E-941B-BDF9D0DC266B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_59.xlsx
+++ b/Testdata/TC_59.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>MR4AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSe6EkU8JoA/EihyglCiJVWXkplrtDaarlLLszK4lvKZAgRZqiKAqnSK/oU4oCdY02AVK7l38JLNl96i/0zGVvJBVrVUOAd85tzpw51yF653oaGpc4ZiSiOzV7zaoZmPpRQOjZTi3hk7q9WXvHRd1rH4eHXuxNMQdiA7go275mZKd2zvls2zSvrq7WrhprUXxmOpZlm0/2+0P/HE+9OqGMe9THtYwreDtXzUXtYLqPuRd43FOcO7XesLfWxsTvAGzfo94ZjtdaCSMUM9alnHCCmeCMscdxu7P/PXUw11nbXLORuQTPKVsJCQNFV6JUcE0H2+IRmWLXsRyrbjXrzvrIam43Nrcbj9aajvNeypgRor7H+BDHl8SXgCH3pjPJbjWddavZ2Gw8QuZKIpCVG8BFgzA4wpeE4aCNw5BVsoipL3DX53Dqasa0kFng1YIersLj2JudjwgPcVX2vSjGPhjqQXsf4KtBrO03mvUBOzonMZ93vHllWccMx4OZsEY1Vhd1Isp3Qxzz4xlcKg7gzgHh8jjByLwDmTN1CPPhm9AEB+7EC1mRqYREJ1F8wWaejw8gYE0h44qGkReAZ3HCOPFZLmAJgw7jaAYiYfdWFAZ7IFaruAKRie5RsLHYtxVFF4vSy0gknUC6A1zq1OMp+RIcDc+jqwEN58NkzPyYjHHQaaXUK3FIhJ7mbieMR1PQIgchBStA5vAPQm0RjDrYJ1MvPAzBisxtgJQSAO0mPJoQ3o7CZEozcy5A0QmcaISvsxNmazSA26XC6BHt0ZRemXklqsxwFF1ley4jpBEK4F3mp062jFgk7gAsvb5ljLwRcco9EkIlKN5FAVr2iuE5xnylSygMEklvT9QWtzUXeyIzhyDwTHBvgELatDZl1rVHlrUt/2DnDI26NJAfFlSSuvwr0KVIdJBMB2MI4Ut5JtcG3AIIwSnCVujRC4CeEH5+sJtqvwKD1JnvpF/GIQjWWejNJTizSxGGetQPkwCrHNCjE+mUQjd1jXei0RKoD1HtIo/OR/MZ5FxGtjl87NSgCm8zHkOdr7l+lFAez0WyQKYmfRsPS8ZUbuCF9+aZxPiHCbQX872E+u0ouP9ugbLOMSX8/hpGSawy4P1ZpPVELkxYB4usIvP8vfn9KmdicSXyKcXTiBL//tYGIwvtgwcchKVRVeAw7/CtDp54SQgNDIfyc5ZXlgUw2mUXizRFEDqOwzQ5uKI9ZNAf+sF0zYfCKnqgNT+aCoAJbdnJEJlFetEd+LhLz/oePUug/mYBuAjPUpMoHaPYo0wcJyu3C1lqNRFKA1q1AW4xdpG5gEQjPJ1FsRfugzXInr4U3UBAbd73+LleQa4PsZ9a1sxZM66yOqm2byOTSVvpLsJBJ5EFoCQSV67az5wmhyGRwPbBacO2F5JxrHJOWtpW4eCW8m4pzU7icBU7p9TwMIJANfounou+NF9ouPRTO0UorxVpxh0erTedDavhQKUXayRPfIS90OiCq3Ns9OglZnwKbNvGEWYkgC/ihdvGu3iMCZQIaSJ90ZW5i3xoL82CUpVd0LcMKRNA/T0jkGSXCTNMzuCeYi8O5wVCddR+5APd7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aU6piJGI28cYqnQqNVsWo118LMMhIRxTdkqBonPJez0VHaI2RrpkUYu2t1e+3G/JZNIBkzZVcI1xbQ0j5J8OVSHkBvJKzVTT1Ak7ihNSnpdwhYSuCuml0tcpi7i72JUtnj98vPXL/98J7c2WN6J2FtbG3XbKTcgKxoVx7LtJbqsURFToZoF9Mxpr9etjbrjFIgXaNARjM7Q+md26gVuw7a2LKdh2VkCDzJHXkW0iNKSRt6ZucCnQG3VPGQuUFynSOn4IwiRDK1CobDQLvrlT9785WmJSltXQ8pSQDlZ5MVmZrqQog+ORsZwcHzU7hqj7lD4SY4r0Cnh30Csd8/iqeRUlCZe+B0DU/FcYtRgQqgZ0cTAnn9uzCESC3FYcrZVULXRA0Uuavk4jpKZupECQw5dQZllk5UcK3KNxEl7LiWdHLWCXOl68/cvVjHog3Tyds892m8ZU5r5pYShEkaBCngdtZ/969VXH7168eL2+c9vvvpRSYLeJ5uTwc8hmorLzO0h5el6swBBJ0NpzAvr+4X6ooFizDiMCOXMtTflhKFXCFhtIU3+j3pTKHlSsLQXwBcg6F2Pda+5Dmz3AJllAOg586DaRvkslgFUDs/t+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDirrbp89vf/pMZ/nFQiB1EROe6vwM+V7gGyIaDVG7ja/f/4VBI25Ay2EkMiN9/f5nBWFCUdmc5JKhj8sUKauwRFpkFnxGQZVMhxJfxqIagLYoYY2MQhexaEb8fJP36kKUiDuJ+FZvVE8YNiLopr4NJykT58z35dMsqqQePrIc29FYpY04wthjBdM/DqMxNBkpQg7kCyQlrm9myGnlfo/7g9ZuPydRSgziAOZ3S7wqiA/UY2lTmbpXAQJYaPb8JBTvJktkyyiUfhVSl6kfICa7gUh5q4f3EgVqJ3GsmiCqX66HyQwa4PSZ6m68fLsr9LwHqj8tdsH5utcp42FdwELxK6MFQOJlOtIolZp6TLx1qBb2QJgmXwKu9N4H5tCP06q7uoReMjZFrunGcRSvTDg5JiXbh+4ZsoiZWzyjMcWWqtMO8rtKAWmSyz7UiKdPGHVwiHnll9uUez+6fDAv3H1V1h4bhIE2ZrVxIzNLLqD4fC0cpaoyu3EMbZN47qr83twn9KJX7fSuM3k0WR8HW+NJc72x1dxy/PFkw7Htsd+YNMdwNiVUTJ9ChJhcxOxWbRNoFsvs+XB9BON2RWnKwJJRzKJgKRmQOrFna7RHYsafiBSlvxTkNIOcqtb5idBPfcj1qWvrn1qAwCxuZpa0TvMLV790RGGfTEnFedVKk1BZCLjBbKZ6y6oXCjXvAF9D51uQANl6/AOoZ+odp4o0FVWQ5DP+VNYwGVcWZ6bMh4AXjvUw7m4AfdnDueXPBiT8PxSQnddDRfQoI2fnvHKgbm018CZ26s7E9+vrsKhDNR7XA2+yZVvWpBFsOOK9VwuH6kDwVcVNRE0hDOaK6nzmwg+/7v8AWaCDJzEeAAA=</t>
+          <t>OBwAAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCJe+OlG1JWF3AlxSipCiQVGXlS7G8W4lX3+2xt3uS+C0FEqRIUxRF4RTpE/2UokBdo02A1O7jfwks2f3Uf6Gzj3uRVCyqgiHfzvxmdnZ2dmZ2hd65CgPjgsTMj+hexa5ZFYNQN/J8er5XSfhZ1X5YecdB3SuXBEc4xiHhADZAirLdK+bvVWacz3dN8/LysnbZqEXxuVm3LNt8POiP3RkJcdWnjGPqkkom5b1dquKgthcOCMce5lhJ7lV6416tTXy3A7QBpvicxLVWwnxKGOtS7nOfMCEZE8xJuzP4nlqYU689rNnIXKHnyFbiB57ClZCKrnEwLZn4IXHqlr1dtbarDXtiW7uNnd36o5q1s/VeKpgBUR8zPibxhe9KwpjjcC7Fre2GbVuNnfojZK4Fga7cAQ4aBt6IXPiMeG0SBGwjj5h6A5suh1Vv5kwLmQVZrej+JhzEeD6b+Dwgm5kxGrSMkGpbciUO2o9i4oL/7mXSIbkcxtqtk3kfuJOZH/NFBy821nXMSDycCydtJuqgTkR5MyAxP57DXhMPQgEYDo8TgsxbmLlQx2cufPs0IZ5zhgNWFCox0UkUP2Fz7JJDOMem0HFJgwh7EHDcZ9x3Wa5ghYOO4mgOKmH2VhR4+6BWm7iGkanuUfCxmLcVRU+WtZeZSG6r3GDY1BDzFL5CR+NZdDmkwWKcTJkb+1PidVopei0PiROppdsJ41EIVuQkpGgFygJ+4AQuk1GHuH6Ig6MAvMicBmgpEVAz4dGZz9tRkIQ0c+cSFZ3AiibkKlthNkZD2F0qnB7RHk3xys1rWWWBUXSZzbnKkE4okJvMTYNslbEM7gAt3b5VjtwRscp9P4ACUdyLArUcFeMZIXxtSCgOErlwX5Qcp7UQcyIzpyCITAhvoEI2tayqZVetxsSyduU/mDljoy715AfAbImzC7iUiQ6TcDiFI3wh1+TYwFsiIVhF0AowfQLUE5/PDpup9Ws4SK35VvwqD8FhnQd4IcmZX4o01KNukHhE5YAePZNBKWxT23grG62Q+nCqHYTpYrKYQypm/i6Hj70KFOddxmMo/xXHjRLK44VIFsjU0LfJsGRK5QQ4uLPMWUx+mEDXsdhPqNuOvLvP5invHFOf393CKIlVBry7iPSeyIUJ6xCRVWSev7O8u8maWLwRPKQkjKjv3t3b4GRhvXePhbD0VBUkzFtiq0POcBJAX8Oh/JznlWWJjJrsyTKmSELHcZAmB0d0jQzaRtcLay4UVtEa1dwoFAQTurWTMTKLeNEduKRLz/uYnidQf7MDuEzPUpMoHZMYUyaWk5XbpSy1HoTSA63aAKd4dpG5xEQTEs6jGAcD8Ia/rzdFNxBQmweYz/QIcn1A3NSzZi6aSZXNSa19G0wmbWW7OA46iSwRJUhsuepKc0xOQyKBDSBogzYO/Gmsck5a2tbxYJfybinNTmJxG3ZOqePhZgLV6LtkIdrVfKDpMk7tlKGiVqQZZzza2q4/sBp1qPRijOSKRwQHRhdCnROjRy8I4yGI7RojwnwPvnwc7BrvkinxoURIF+mN3li6KIf20ywoTWmCvWVKGQD199yHJLsKzDi5gHNKcBwsCkC11H7kAu7mx/++/s3zVy8+v/n46ZsvP/jvP3716p8/u372IXzc/PVv15/8Ui1TgdEETwMiDZq0tretxhbEWUZCwrmmbBW9xOWSdnoqO8RsjPRNRw7a3V77oN+SSSQjpuIq4ZriErWIknw4VouQE8ktNdNIUBBnkiYlPS5xCwncEZeaC1JGF/m3CSpfvH75+euXf75VWjss70TsnZ0HVbtebkDWNCpwPbRXcFmjIi6L6i6QXkW3qtaDar1eAC9h0Ahu1ND6Z37qeU7DtnasesOyswTuZYG8DrTM0pom+NxcklOktmoeshAojlOmDPwJHJGMrY5CYaBD9MufvPnL0xJKe1dTylrAOFnkxWRmOpCqD0cTYzw8HrW7xqQ7FnGS8wo4pfwbwHr27DyVgorSBAffMQgVryhGBW4IFSM6Mwh2Z8YCTmLhHJaCbR1VTXRPlctWHsRRMlc7UhDIqWuQWTZZK7Em10ie9OdK0slZa+DK1uu/f7FOQC+kk7d72YNAkYZKHEUq8PWp/exfr7766NWLFzfPf3791Y9KGvQ82T0Z4hxOU3GYhT2kPF1vlijoZCyd+cT6fqG+aKK4ZhxFPuXMsR/KG4YeIRC1hTb5P+qFUPKkYukvoC9R0LuYda+4PtjOITLLBLBzjqHaRvldLCOoHJ779T+//d3Nr7+4+fT5m4/+dP3xH68/+fT1y9+/efYHdepunj6/+ekzneWXC4G0RdzwVOdnyPcC1xCn0RC12/j6/V8YNOIGtBxGIjPS1+9/VlAmDJXNSa4Z+rjMkLIJK9CisJAzCqZkNpTkMhHVALRFCWtkCF3Eornv5pO8VxWqxLmTjG/1JtWEESOCburbsJIyOBe+q5wWUSX16JFVt+uaq6wRS5hiVnD9QRBNoclIGfJCvgQpSX2zQI6V8x30h61mP4coI4axB/d3S7wqiA+UtpSipPRYOkpDrUABLjR+bhKIN5QV2Cor01xIY6Z+jDhreiL9rb/IlxConcSxaoioftweJ3NohtMnq9v58h2v0P8eql612BHn416nzIdxgQuFsMwWBMmXqUmzVJrqMfHuodrZQ+GafAi80tsfuEO/X6tO6wL6ytgUeacbx1G8NvnknBQ2gE4aMoqZezzDyD1VXbeX71VKSBNe9qGue3qFUYcEhG/2uGvm0oPo4t6ysPebivbYMPC0Mze7emRuyRUUX7hFoPy/D9wq2JpxDI2VeBDb+EU6va2O4JK7oTVqKVJQ3ABhdv1kvO/HjD8WmUB/KcppRjlVHepjceFSH3J86tQbigAAs6jdLJmZHl2u/s4QBX0/9De8Flrp+S4rAV/O56qF620WKaK0HJIraDALGiApTn8AZUM9l2yiTQUs5NJMXrzsMf98xjc17NEUE49Mrao7JfXqlmdtV3cIaVRtG35jt163rAfiXVArh8zhk8sNJzHTDcv//uf8D+4PomE4HAAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -535,49 +535,97 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>39052</v>
+        <v>36861</v>
       </c>
       <c r="B13" s="6">
-        <v>37962.97</v>
+        <v>7111.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>39417</v>
+        <v>37226</v>
       </c>
       <c r="B14" s="6">
-        <v>57369.95</v>
+        <v>8354.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>39783</v>
+        <v>37591</v>
       </c>
       <c r="B15" s="6">
-        <v>85858.17</v>
+        <v>10540.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>40148</v>
+        <v>37956</v>
       </c>
       <c r="B16" s="6">
-        <v>121923.76</v>
+        <v>16421.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>40513</v>
+        <v>38322</v>
       </c>
       <c r="B17" s="6">
-        <v>178575.96</v>
+        <v>22352.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B18" s="6">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>39052</v>
+      </c>
+      <c r="B19" s="6">
+        <v>37962.97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>39417</v>
+      </c>
+      <c r="B20" s="6">
+        <v>57369.95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>39783</v>
+      </c>
+      <c r="B21" s="6">
+        <v>85858.17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>40148</v>
+      </c>
+      <c r="B22" s="6">
+        <v>121923.76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>40513</v>
+      </c>
+      <c r="B23" s="6">
+        <v>178575.96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
         <v>40878</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B24" s="6">
         <v>229630.61</v>
       </c>
     </row>
@@ -585,37 +633,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>18</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DA8A5E-A505-420E-941B-BDF9D0DC266B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>